--- a/data/annotated/Labels - https___doi.org_10.1093_ehr_cead107 .xlsx
+++ b/data/annotated/Labels - https___doi.org_10.1093_ehr_cead107 .xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quenzer/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quenzer/Desktop/Data Science/3. Semester 2023 WS/Data Analysis Project/A-blessing-or-a-curse-Analysis-of-scholarly-citations/data/annotated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6B7171-CFA1-AE49-9FAA-608B5782DDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BC4094-5459-0F43-A2AE-220500B12387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>Subset</t>
   </si>
   <si>
-    <t>Author/s</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -735,6 +732,9 @@
   </si>
   <si>
     <t>Staying Afloat: Risk and Uncertainty in Spanish Atlantic World Trade, 1760– 1820</t>
+  </si>
+  <si>
+    <t>Authors</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:K197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:M207"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1042,13 +1042,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="G1" s="1"/>
       <c r="I1" s="1"/>
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -1070,7 +1070,7 @@
       <c r="I2" s="1"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" ht="15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -1092,7 +1092,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -1140,10 +1140,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -1174,10 +1174,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -1191,10 +1191,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -1208,10 +1208,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -1225,10 +1225,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -1242,10 +1242,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -1276,10 +1276,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -1293,10 +1293,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -1327,10 +1327,10 @@
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -1361,10 +1361,10 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -1378,10 +1378,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -1395,10 +1395,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -1412,10 +1412,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1430,10 +1430,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -1448,10 +1448,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -1465,10 +1465,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -1516,10 +1516,10 @@
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>3</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -1550,10 +1550,10 @@
         <v>4</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -1567,10 +1567,10 @@
         <v>5</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>6</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -1601,10 +1601,10 @@
         <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>8</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
@@ -1652,10 +1652,10 @@
         <v>10</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
@@ -1686,10 +1686,10 @@
         <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -1703,10 +1703,10 @@
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -1722,10 +1722,10 @@
         <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
@@ -1739,10 +1739,10 @@
         <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
@@ -1756,10 +1756,10 @@
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
@@ -1773,10 +1773,10 @@
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
@@ -1790,10 +1790,10 @@
         <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
@@ -1841,10 +1841,10 @@
         <v>2</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="E48" s="1">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>3</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="E49" s="1">
         <v>0</v>
@@ -1875,10 +1875,10 @@
         <v>4</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="E50" s="1">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>5</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
@@ -1926,10 +1926,10 @@
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -1943,10 +1943,10 @@
         <v>2</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
@@ -1960,10 +1960,10 @@
         <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
@@ -1977,10 +1977,10 @@
         <v>2</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="E56" s="1">
         <v>0</v>
@@ -1994,10 +1994,10 @@
         <v>3</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -2011,10 +2011,10 @@
         <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -2029,10 +2029,10 @@
         <v>1</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E59" s="1">
         <v>0</v>
@@ -2046,10 +2046,10 @@
         <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -2063,10 +2063,10 @@
         <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         <v>1</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="E62" s="1">
         <v>0</v>
@@ -2097,10 +2097,10 @@
         <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="E63" s="1">
         <v>0</v>
@@ -2114,10 +2114,10 @@
         <v>1</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="E64" s="1">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>1</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="E65" s="1">
         <v>0</v>
@@ -2148,10 +2148,10 @@
         <v>1</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E66" s="1">
         <v>0</v>
@@ -2165,10 +2165,10 @@
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="E67" s="1">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>1</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E68" s="1">
         <v>0</v>
@@ -2199,10 +2199,10 @@
         <v>1</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="E69" s="1">
         <v>0</v>
@@ -2216,10 +2216,10 @@
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="E70" s="1">
         <v>0</v>
@@ -2233,10 +2233,10 @@
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E71" s="1">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>1</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E72" s="1">
         <v>0</v>
@@ -2267,10 +2267,10 @@
         <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E73" s="1">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>2</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="E74" s="1">
         <v>0</v>
@@ -2301,10 +2301,10 @@
         <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="E75" s="1">
         <v>0</v>
@@ -2318,10 +2318,10 @@
         <v>2</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E76" s="1">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E77" s="1">
         <v>0</v>
@@ -2352,10 +2352,10 @@
         <v>1</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E78" s="1">
         <v>0</v>
@@ -2369,10 +2369,10 @@
         <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E79" s="1">
         <v>0</v>
@@ -2386,10 +2386,10 @@
         <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E80" s="1">
         <v>0</v>
@@ -2403,10 +2403,10 @@
         <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="E81" s="1">
         <v>0</v>
@@ -2420,10 +2420,10 @@
         <v>2</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E82" s="1">
         <v>0</v>
@@ -2437,10 +2437,10 @@
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E83" s="1">
         <v>0</v>
@@ -2454,10 +2454,10 @@
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="E84" s="1">
         <v>0</v>
@@ -2471,10 +2471,10 @@
         <v>2</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="E85" s="1">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="E86" s="1">
         <v>0</v>
@@ -2505,10 +2505,10 @@
         <v>2</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="E87" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>1</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="E88" s="1">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>1</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E89" s="1">
         <v>0</v>
@@ -2556,10 +2556,10 @@
         <v>1</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E90" s="1">
         <v>0</v>
@@ -2573,10 +2573,10 @@
         <v>1</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E91" s="1">
         <v>0</v>
@@ -2590,10 +2590,10 @@
         <v>1</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="E92" s="1">
         <v>0</v>
@@ -2607,10 +2607,10 @@
         <v>1</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="E93" s="1">
         <v>1</v>
@@ -2625,10 +2625,10 @@
         <v>1</v>
       </c>
       <c r="C94" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="E94" s="1">
         <v>0</v>
@@ -2642,10 +2642,10 @@
         <v>2</v>
       </c>
       <c r="C95" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="E95" s="1">
         <v>0</v>
@@ -2659,10 +2659,10 @@
         <v>3</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E96" s="1">
         <v>0</v>
@@ -2676,10 +2676,10 @@
         <v>1</v>
       </c>
       <c r="C97" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="E97" s="1">
         <v>0</v>
@@ -2693,10 +2693,10 @@
         <v>1</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E98" s="1">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         <v>1</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E99" s="1">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>1</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E100" s="1">
         <v>0</v>
@@ -2744,10 +2744,10 @@
         <v>1</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E101" s="1">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>1</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E102" s="1">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>1</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E103" s="1">
         <v>0</v>
@@ -2795,10 +2795,10 @@
         <v>2</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E104" s="1">
         <v>0</v>
@@ -2812,10 +2812,10 @@
         <v>3</v>
       </c>
       <c r="C105" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="E105" s="1">
         <v>0</v>
@@ -2829,10 +2829,10 @@
         <v>1</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E106" s="1">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>2</v>
       </c>
       <c r="C107" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="E107" s="1">
         <v>0</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E108" s="1">
         <v>0</v>
@@ -2880,10 +2880,10 @@
         <v>1</v>
       </c>
       <c r="C109" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="E109" s="1">
         <v>0</v>
@@ -2897,10 +2897,10 @@
         <v>1</v>
       </c>
       <c r="C110" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="E110" s="1">
         <v>0</v>
@@ -2914,10 +2914,10 @@
         <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E111" s="1">
         <v>1</v>
@@ -2932,10 +2932,10 @@
         <v>1</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E112" s="1">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         <v>1</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E113" s="1">
         <v>0</v>
@@ -2966,10 +2966,10 @@
         <v>1</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E114" s="1">
         <v>0</v>
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E115" s="1">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>1</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E116" s="1">
         <v>0</v>
@@ -3017,10 +3017,10 @@
         <v>1</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E117" s="1">
         <v>0</v>
@@ -3034,10 +3034,10 @@
         <v>1</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E118" s="1">
         <v>0</v>
@@ -3051,10 +3051,10 @@
         <v>2</v>
       </c>
       <c r="C119" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="E119" s="1">
         <v>0</v>
@@ -3068,10 +3068,10 @@
         <v>1</v>
       </c>
       <c r="C120" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="E120" s="1">
         <v>0</v>
@@ -3085,10 +3085,10 @@
         <v>1</v>
       </c>
       <c r="C121" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="E121" s="1">
         <v>0</v>
@@ -3102,10 +3102,10 @@
         <v>2</v>
       </c>
       <c r="C122" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="E122" s="1">
         <v>0</v>
@@ -3119,10 +3119,10 @@
         <v>1</v>
       </c>
       <c r="C123" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="E123" s="1">
         <v>0</v>
@@ -3136,10 +3136,10 @@
         <v>1</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E124" s="1">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>1</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E125" s="1">
         <v>0</v>
@@ -3170,10 +3170,10 @@
         <v>1</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E126" s="1">
         <v>0</v>
@@ -3187,10 +3187,10 @@
         <v>1</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E127" s="1">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>1</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E128" s="1">
         <v>0</v>
@@ -3221,10 +3221,10 @@
         <v>1</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E129" s="1">
         <v>0</v>
@@ -3238,10 +3238,10 @@
         <v>2</v>
       </c>
       <c r="C130" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="E130" s="1">
         <v>0</v>
@@ -3255,10 +3255,10 @@
         <v>3</v>
       </c>
       <c r="C131" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="E131" s="1">
         <v>0</v>
@@ -3272,10 +3272,10 @@
         <v>1</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E132" s="1">
         <v>0</v>
@@ -3289,10 +3289,10 @@
         <v>1</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E133" s="1">
         <v>0</v>
@@ -3306,10 +3306,10 @@
         <v>2</v>
       </c>
       <c r="C134" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="E134" s="1">
         <v>0</v>
@@ -3323,10 +3323,10 @@
         <v>3</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E135" s="1">
         <v>0</v>
@@ -3340,10 +3340,10 @@
         <v>1</v>
       </c>
       <c r="C136" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="E136" s="1">
         <v>0</v>
@@ -3357,10 +3357,10 @@
         <v>2</v>
       </c>
       <c r="C137" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="E137" s="1">
         <v>0</v>
@@ -3374,10 +3374,10 @@
         <v>1</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E138" s="1">
         <v>0</v>
@@ -3391,10 +3391,10 @@
         <v>2</v>
       </c>
       <c r="C139" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="E139" s="1">
         <v>0</v>
@@ -3408,10 +3408,10 @@
         <v>1</v>
       </c>
       <c r="C140" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="E140" s="1">
         <v>0</v>
@@ -3425,10 +3425,10 @@
         <v>2</v>
       </c>
       <c r="C141" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="E141" s="1">
         <v>1</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="C142" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="E142" s="1">
         <v>1</v>
@@ -3461,10 +3461,10 @@
         <v>2</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E143" s="1">
         <v>1</v>
@@ -3478,10 +3478,10 @@
         <v>1</v>
       </c>
       <c r="C144" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="E144" s="1">
         <v>1</v>
@@ -3496,10 +3496,10 @@
         <v>2</v>
       </c>
       <c r="C145" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="E145" s="1">
         <v>0</v>
@@ -3513,10 +3513,10 @@
         <v>1</v>
       </c>
       <c r="C146" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="E146" s="1">
         <v>0</v>
@@ -3530,10 +3530,10 @@
         <v>2</v>
       </c>
       <c r="C147" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="E147" s="1">
         <v>0</v>
@@ -3547,10 +3547,10 @@
         <v>3</v>
       </c>
       <c r="C148" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="E148" s="1">
         <v>0</v>
@@ -3564,10 +3564,10 @@
         <v>1</v>
       </c>
       <c r="C149" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="E149" s="1">
         <v>0</v>
@@ -3581,10 +3581,10 @@
         <v>1</v>
       </c>
       <c r="C150" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D150" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="E150" s="1">
         <v>0</v>
@@ -3598,10 +3598,10 @@
         <v>1</v>
       </c>
       <c r="C151" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="E151" s="1">
         <v>0</v>
@@ -3615,10 +3615,10 @@
         <v>1</v>
       </c>
       <c r="C152" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D152" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="E152" s="1">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>1</v>
       </c>
       <c r="C153" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="E153" s="1">
         <v>0</v>
@@ -3649,10 +3649,10 @@
         <v>1</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E154" s="1">
         <v>0</v>
@@ -3666,10 +3666,10 @@
         <v>1</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E155" s="1">
         <v>0</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E156" s="1">
         <v>0</v>
@@ -3700,10 +3700,10 @@
         <v>2</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E157" s="1">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>3</v>
       </c>
       <c r="C158" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="E158" s="1">
         <v>0</v>
@@ -3734,10 +3734,10 @@
         <v>1</v>
       </c>
       <c r="C159" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="E159" s="1">
         <v>0</v>
@@ -3751,10 +3751,10 @@
         <v>2</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E160" s="1">
         <v>0</v>
@@ -3768,10 +3768,10 @@
         <v>1</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E161" s="1">
         <v>0</v>
@@ -3785,10 +3785,10 @@
         <v>2</v>
       </c>
       <c r="C162" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D162" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="E162" s="1">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>1</v>
       </c>
       <c r="C163" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D163" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="E163" s="1">
         <v>0</v>
@@ -3819,10 +3819,10 @@
         <v>1</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E164" s="1">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>2</v>
       </c>
       <c r="C165" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D165" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="E165" s="1">
         <v>0</v>
@@ -3853,10 +3853,10 @@
         <v>1</v>
       </c>
       <c r="C166" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="E166" s="1">
         <v>0</v>
@@ -3870,10 +3870,10 @@
         <v>1</v>
       </c>
       <c r="C167" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="E167" s="1">
         <v>0</v>
@@ -3887,10 +3887,10 @@
         <v>2</v>
       </c>
       <c r="C168" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D168" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E168" s="1">
         <v>0</v>
@@ -3904,10 +3904,10 @@
         <v>3</v>
       </c>
       <c r="C169" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="E169" s="1">
         <v>0</v>
@@ -3921,10 +3921,10 @@
         <v>4</v>
       </c>
       <c r="C170" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="E170" s="1">
         <v>0</v>
@@ -3938,10 +3938,10 @@
         <v>5</v>
       </c>
       <c r="C171" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D171" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="E171" s="1">
         <v>0</v>
@@ -3955,10 +3955,10 @@
         <v>1</v>
       </c>
       <c r="C172" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="E172" s="1">
         <v>0</v>
@@ -3972,10 +3972,10 @@
         <v>1</v>
       </c>
       <c r="C173" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="E173" s="1">
         <v>0</v>
@@ -3989,10 +3989,10 @@
         <v>1</v>
       </c>
       <c r="C174" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="E174" s="1">
         <v>1</v>
@@ -4007,10 +4007,10 @@
         <v>2</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E175" s="1">
         <v>1</v>
@@ -4025,10 +4025,10 @@
         <v>3</v>
       </c>
       <c r="C176" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="E176" s="1">
         <v>1</v>
@@ -4043,10 +4043,10 @@
         <v>1</v>
       </c>
       <c r="C177" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="E177" s="1">
         <v>0</v>
@@ -4060,10 +4060,10 @@
         <v>1</v>
       </c>
       <c r="C178" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="E178" s="1">
         <v>1</v>
@@ -4078,10 +4078,10 @@
         <v>1</v>
       </c>
       <c r="C179" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D179" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="E179" s="1">
         <v>0</v>
@@ -4096,10 +4096,10 @@
         <v>2</v>
       </c>
       <c r="C180" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D180" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="E180" s="1">
         <v>0</v>
@@ -4114,10 +4114,10 @@
         <v>1</v>
       </c>
       <c r="C181" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D181" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="E181" s="1">
         <v>0</v>
@@ -4132,10 +4132,10 @@
         <v>1</v>
       </c>
       <c r="C182" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D182" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="E182" s="1">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>2</v>
       </c>
       <c r="C183" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="E183" s="1">
         <v>0</v>
@@ -4168,10 +4168,10 @@
         <v>3</v>
       </c>
       <c r="C184" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D184" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E184" s="1">
         <v>0</v>
@@ -4186,10 +4186,10 @@
         <v>1</v>
       </c>
       <c r="C185" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D185" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="E185" s="1">
         <v>0</v>
@@ -4204,10 +4204,10 @@
         <v>1</v>
       </c>
       <c r="C186" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="E186" s="1">
         <v>0</v>
@@ -4222,10 +4222,10 @@
         <v>2</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E187" s="1">
         <v>0</v>
@@ -4240,10 +4240,10 @@
         <v>1</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E188" s="1">
         <v>0</v>
@@ -4258,10 +4258,10 @@
         <v>2</v>
       </c>
       <c r="C189" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D189" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="E189" s="1">
         <v>0</v>
@@ -4276,10 +4276,10 @@
         <v>1</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E190" s="1">
         <v>0</v>
@@ -4293,10 +4293,10 @@
         <v>1</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E191" s="1">
         <v>0</v>
@@ -4310,10 +4310,10 @@
         <v>2</v>
       </c>
       <c r="C192" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D192" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="E192" s="1">
         <v>0</v>
@@ -4327,10 +4327,10 @@
         <v>1</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E193" s="1">
         <v>0</v>
@@ -4344,10 +4344,10 @@
         <v>2</v>
       </c>
       <c r="C194" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D194" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="E194" s="1">
         <v>0</v>
@@ -4361,10 +4361,10 @@
         <v>3</v>
       </c>
       <c r="C195" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D195" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="E195" s="1">
         <v>0</v>
@@ -4378,10 +4378,10 @@
         <v>1</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E196" s="1">
         <v>0</v>
@@ -4395,10 +4395,10 @@
         <v>1</v>
       </c>
       <c r="C197" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D197" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="E197" s="1">
         <v>0</v>
